--- a/SS.xlsx
+++ b/SS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\1BYTE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D804D2AC-9CA7-4C33-A3D5-9AE443B60454}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15114EC9-8C21-4A23-8097-C694F50E9595}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{C3DBF6C8-52D7-45D1-B049-808B0AB7B082}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
   <si>
     <t>ASM</t>
   </si>
@@ -66,9 +66,6 @@
     <t>Desc</t>
   </si>
   <si>
-    <t>self explanatoriy</t>
-  </si>
-  <si>
     <t>R</t>
   </si>
   <si>
@@ -103,6 +100,39 @@
   </si>
   <si>
     <t>0x00</t>
+  </si>
+  <si>
+    <t>Argument 1</t>
+  </si>
+  <si>
+    <t>Argument 2</t>
+  </si>
+  <si>
+    <t>End of program</t>
+  </si>
+  <si>
+    <t>No operation</t>
+  </si>
+  <si>
+    <t>CPU cycles</t>
+  </si>
+  <si>
+    <t>Add R2 to R1</t>
+  </si>
+  <si>
+    <t>Add val to R</t>
+  </si>
+  <si>
+    <t>Subtract R2 from R1</t>
+  </si>
+  <si>
+    <t>Subtract val from R</t>
+  </si>
+  <si>
+    <t>Move R2 into R1</t>
+  </si>
+  <si>
+    <t>Move val into R</t>
   </si>
 </sst>
 </file>
@@ -460,56 +490,75 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8750437-6B07-490F-A738-3C95E55B862D}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="28.28515625" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
         <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
@@ -520,30 +569,36 @@
       <c r="E4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
         <v>1</v>
@@ -554,30 +609,36 @@
       <c r="E6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
         <v>3</v>
@@ -588,22 +649,28 @@
       <c r="E8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
         <v>8</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/SS.xlsx
+++ b/SS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\1BYTE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15114EC9-8C21-4A23-8097-C694F50E9595}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1245C615-8F2E-4C94-B4EB-E6482B3C5634}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{C3DBF6C8-52D7-45D1-B049-808B0AB7B082}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
   <si>
     <t>ASM</t>
   </si>
@@ -133,6 +133,9 @@
   </si>
   <si>
     <t>Move val into R</t>
+  </si>
+  <si>
+    <t>Implemented</t>
   </si>
 </sst>
 </file>
@@ -490,10 +493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8750437-6B07-490F-A738-3C95E55B862D}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -503,9 +506,10 @@
     <col min="4" max="4" width="16.28515625" customWidth="1"/>
     <col min="5" max="5" width="18.42578125" customWidth="1"/>
     <col min="6" max="6" width="19.28515625" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -524,157 +528,199 @@
       <c r="F1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="H1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>25</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>14</v>
       </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>26</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>15</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>12</v>
       </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>28</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>16</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
         <v>2</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D5" t="s">
         <v>6</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E5" t="s">
         <v>7</v>
       </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>29</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>17</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>5</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D6" t="s">
         <v>11</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E6" t="s">
         <v>8</v>
       </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>30</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>18</v>
       </c>
-      <c r="C6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
         <v>6</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E7" t="s">
         <v>7</v>
       </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>31</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>19</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>9</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D8" t="s">
         <v>11</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E8" t="s">
         <v>8</v>
       </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>32</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>20</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>3</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D9" t="s">
         <v>6</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E9" t="s">
         <v>7</v>
       </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>33</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>21</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>4</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D10" t="s">
         <v>11</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E10" t="s">
         <v>8</v>
       </c>
-      <c r="F9">
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="H10">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="H1:H10">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/SS.xlsx
+++ b/SS.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\1BYTE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1245C615-8F2E-4C94-B4EB-E6482B3C5634}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F13D6018-A7A2-4A96-B5A1-0859E11CF5F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{C3DBF6C8-52D7-45D1-B049-808B0AB7B082}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C3DBF6C8-52D7-45D1-B049-808B0AB7B082}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle2" sheetId="2" r:id="rId1"/>
+    <sheet name="Cool tabel" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="96">
   <si>
     <t>ASM</t>
   </si>
@@ -51,12 +51,6 @@
     <t>addi</t>
   </si>
   <si>
-    <t>R1</t>
-  </si>
-  <si>
-    <t>R2</t>
-  </si>
-  <si>
     <t>val</t>
   </si>
   <si>
@@ -78,30 +72,6 @@
     <t>HALT</t>
   </si>
   <si>
-    <t>0x01</t>
-  </si>
-  <si>
-    <t>0x02</t>
-  </si>
-  <si>
-    <t>0x03</t>
-  </si>
-  <si>
-    <t>0x04</t>
-  </si>
-  <si>
-    <t>0x05</t>
-  </si>
-  <si>
-    <t>0x06</t>
-  </si>
-  <si>
-    <t>0x07</t>
-  </si>
-  <si>
-    <t>0x00</t>
-  </si>
-  <si>
     <t>Argument 1</t>
   </si>
   <si>
@@ -136,13 +106,226 @@
   </si>
   <si>
     <t>Implemented</t>
+  </si>
+  <si>
+    <t>jmp</t>
+  </si>
+  <si>
+    <t>pcVal</t>
+  </si>
+  <si>
+    <t>Set PC to pcVal and exec that instruction</t>
+  </si>
+  <si>
+    <t>srt</t>
+  </si>
+  <si>
+    <t>ret</t>
+  </si>
+  <si>
+    <t>subroutine address</t>
+  </si>
+  <si>
+    <t>sub routines</t>
+  </si>
+  <si>
+    <t>return from subroutine</t>
+  </si>
+  <si>
+    <t>Branch if is equal</t>
+  </si>
+  <si>
+    <t>Branch if is not equal</t>
+  </si>
+  <si>
+    <t>comp</t>
+  </si>
+  <si>
+    <t>push</t>
+  </si>
+  <si>
+    <t>pop</t>
+  </si>
+  <si>
+    <t>pushes register to the stack</t>
+  </si>
+  <si>
+    <t>pops register from the stack</t>
+  </si>
+  <si>
+    <t>inc</t>
+  </si>
+  <si>
+    <t>adr/R</t>
+  </si>
+  <si>
+    <t>dec</t>
+  </si>
+  <si>
+    <t>increment value</t>
+  </si>
+  <si>
+    <t>decrement value</t>
+  </si>
+  <si>
+    <t>adr/R1</t>
+  </si>
+  <si>
+    <t>adr/R2</t>
+  </si>
+  <si>
+    <t>breq</t>
+  </si>
+  <si>
+    <t>brne</t>
+  </si>
+  <si>
+    <t>brbs</t>
+  </si>
+  <si>
+    <t>brbc</t>
+  </si>
+  <si>
+    <t>flag</t>
+  </si>
+  <si>
+    <t>branch if flag is set</t>
+  </si>
+  <si>
+    <t>branch if flag is cleared</t>
+  </si>
+  <si>
+    <t>Add with carry</t>
+  </si>
+  <si>
+    <t>Sub with carry</t>
+  </si>
+  <si>
+    <t>Logical and</t>
+  </si>
+  <si>
+    <t>Logical or</t>
+  </si>
+  <si>
+    <t>adc</t>
+  </si>
+  <si>
+    <t>sbc</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>or</t>
+  </si>
+  <si>
+    <t>Logical xor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">set bit </t>
+  </si>
+  <si>
+    <t>clear bit</t>
+  </si>
+  <si>
+    <t>sb</t>
+  </si>
+  <si>
+    <t>cb</t>
+  </si>
+  <si>
+    <t>clear reg/adr</t>
+  </si>
+  <si>
+    <t>clr</t>
+  </si>
+  <si>
+    <t>adci</t>
+  </si>
+  <si>
+    <t>sbci</t>
+  </si>
+  <si>
+    <t>andi</t>
+  </si>
+  <si>
+    <t>ori</t>
+  </si>
+  <si>
+    <t>eor</t>
+  </si>
+  <si>
+    <t>eori</t>
+  </si>
+  <si>
+    <t>Selection of possible instructions</t>
+  </si>
+  <si>
+    <t>Multiply</t>
+  </si>
+  <si>
+    <t>mul</t>
+  </si>
+  <si>
+    <t>muli</t>
+  </si>
+  <si>
+    <t>bit</t>
+  </si>
+  <si>
+    <t>rd</t>
+  </si>
+  <si>
+    <t>Write val to IO</t>
+  </si>
+  <si>
+    <t>Write adr/R to IO</t>
+  </si>
+  <si>
+    <t>Read from IO in adr/R</t>
+  </si>
+  <si>
+    <t>wr</t>
+  </si>
+  <si>
+    <t>wri</t>
+  </si>
+  <si>
+    <t>rio</t>
+  </si>
+  <si>
+    <t>sio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recieve IO input </t>
+  </si>
+  <si>
+    <t>Send IO output</t>
+  </si>
+  <si>
+    <t>Shift left</t>
+  </si>
+  <si>
+    <t>Shift right</t>
+  </si>
+  <si>
+    <t>shl</t>
+  </si>
+  <si>
+    <t>shli</t>
+  </si>
+  <si>
+    <t>shr</t>
+  </si>
+  <si>
+    <t>shri</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,13 +339,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -177,8 +374,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -493,17 +694,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8750437-6B07-490F-A738-3C95E55B862D}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="28.28515625" customWidth="1"/>
+    <col min="1" max="1" width="40.28515625" customWidth="1"/>
+    <col min="2" max="2" width="28.28515625" customWidth="1"/>
     <col min="3" max="3" width="17.28515625" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" customWidth="1"/>
     <col min="5" max="5" width="18.42578125" customWidth="1"/>
     <col min="6" max="6" width="19.28515625" customWidth="1"/>
     <col min="8" max="8" width="14.85546875" customWidth="1"/>
@@ -511,25 +713,25 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
         <v>24</v>
-      </c>
-      <c r="F1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -539,125 +741,62 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
+        <v>88</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="C7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -665,54 +804,520 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" t="s">
+        <v>6</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" t="s">
+        <v>6</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" t="s">
+        <v>6</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>33</v>
       </c>
-      <c r="B10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
+      <c r="C25" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" t="s">
+        <v>35</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" t="s">
+        <v>35</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33" t="s">
+        <v>58</v>
+      </c>
+      <c r="D33" t="s">
+        <v>45</v>
+      </c>
+      <c r="E33" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>69</v>
+      </c>
+      <c r="D34" t="s">
+        <v>41</v>
+      </c>
+      <c r="E34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>55</v>
+      </c>
+      <c r="C35" t="s">
+        <v>59</v>
+      </c>
+      <c r="D35" t="s">
+        <v>45</v>
+      </c>
+      <c r="E35" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>70</v>
+      </c>
+      <c r="D36" t="s">
+        <v>41</v>
+      </c>
+      <c r="E36" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>56</v>
+      </c>
+      <c r="C37" t="s">
+        <v>60</v>
+      </c>
+      <c r="D37" t="s">
+        <v>45</v>
+      </c>
+      <c r="E37" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>71</v>
+      </c>
+      <c r="D38" t="s">
+        <v>41</v>
+      </c>
+      <c r="E38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>57</v>
+      </c>
+      <c r="C39" t="s">
+        <v>61</v>
+      </c>
+      <c r="D39" t="s">
+        <v>45</v>
+      </c>
+      <c r="E39" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>72</v>
+      </c>
+      <c r="D40" t="s">
+        <v>41</v>
+      </c>
+      <c r="E40" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>62</v>
+      </c>
+      <c r="C41" t="s">
+        <v>73</v>
+      </c>
+      <c r="D41" t="s">
+        <v>45</v>
+      </c>
+      <c r="E41" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>74</v>
+      </c>
+      <c r="D42" t="s">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>63</v>
+      </c>
+      <c r="C43" t="s">
+        <v>65</v>
+      </c>
+      <c r="D43" t="s">
+        <v>41</v>
+      </c>
+      <c r="E43" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>64</v>
+      </c>
+      <c r="C44" t="s">
+        <v>66</v>
+      </c>
+      <c r="D44" t="s">
+        <v>41</v>
+      </c>
+      <c r="E44" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>67</v>
+      </c>
+      <c r="C45" t="s">
+        <v>68</v>
+      </c>
+      <c r="D45" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>76</v>
+      </c>
+      <c r="C46" t="s">
+        <v>77</v>
+      </c>
+      <c r="D46" t="s">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
+        <v>78</v>
+      </c>
+      <c r="D47" t="s">
+        <v>45</v>
+      </c>
+      <c r="E47" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>90</v>
+      </c>
+      <c r="C48" t="s">
+        <v>92</v>
+      </c>
+      <c r="D48" t="s">
+        <v>45</v>
+      </c>
+      <c r="E48" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C49" t="s">
+        <v>93</v>
+      </c>
+      <c r="D49" t="s">
+        <v>45</v>
+      </c>
+      <c r="E49" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>91</v>
+      </c>
+      <c r="C50" t="s">
+        <v>94</v>
+      </c>
+      <c r="D50" t="s">
+        <v>45</v>
+      </c>
+      <c r="E50" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C51" t="s">
+        <v>95</v>
+      </c>
+      <c r="D51" t="s">
+        <v>45</v>
+      </c>
+      <c r="E51" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A30:H30"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="H1:H10">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="H1:H26">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
